--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1022">
   <si>
     <t>anchor score</t>
   </si>
@@ -391,733 +391,733 @@
     <t>strained</t>
   </si>
   <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>ordering</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>carts</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>ordering</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>ease</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>complaint</t>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>bottles</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>universal</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>sir</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>dump</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>carts</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>communities</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>minister</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>brands</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>bottles</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>universal</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>sir</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>offer</t>
@@ -3445,10 +3445,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4177,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4227,7 +4227,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>83</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K22">
         <v>0.9333333333333333</v>
@@ -4627,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K25">
         <v>0.9230769230769231</v>
@@ -4677,7 +4677,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K26">
         <v>0.9230769230769231</v>
@@ -4727,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K27">
         <v>0.9166666666666666</v>
@@ -4827,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K29">
         <v>0.9090909090909091</v>
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K30">
         <v>0.9</v>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K31">
         <v>0.9</v>
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K33">
         <v>0.9</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K34">
         <v>0.8976377952755905</v>
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K36">
         <v>0.8888888888888888</v>
@@ -5327,7 +5327,7 @@
         <v>5</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K39">
         <v>0.875</v>
@@ -5377,7 +5377,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K40">
         <v>0.875</v>
@@ -5427,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K41">
         <v>0.875</v>
@@ -5477,7 +5477,7 @@
         <v>18</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K42">
         <v>0.8723404255319149</v>
@@ -5527,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K43">
         <v>0.8666666666666667</v>
@@ -5577,7 +5577,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K44">
         <v>0.8636363636363636</v>
@@ -5627,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -5677,7 +5677,7 @@
         <v>8</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K46">
         <v>0.8571428571428571</v>
@@ -5777,7 +5777,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K48">
         <v>0.8518518518518519</v>
@@ -5827,7 +5827,7 @@
         <v>12</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K49">
         <v>0.85</v>
@@ -5927,7 +5927,7 @@
         <v>10</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K51">
         <v>0.8461538461538461</v>
@@ -6077,7 +6077,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K54">
         <v>0.8333333333333334</v>
@@ -6177,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K56">
         <v>0.8333333333333334</v>
@@ -6227,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6277,7 +6277,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6327,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K59">
         <v>0.8333333333333334</v>
@@ -6377,7 +6377,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K60">
         <v>0.8333333333333334</v>
@@ -6427,7 +6427,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K61">
         <v>0.8333333333333334</v>
@@ -6477,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K62">
         <v>0.8253968253968254</v>
@@ -6527,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K63">
         <v>0.8245614035087719</v>
@@ -6577,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K64">
         <v>0.8214285714285714</v>
@@ -6627,7 +6627,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K65">
         <v>0.8214285714285714</v>
@@ -6677,7 +6677,7 @@
         <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K66">
         <v>0.8181818181818182</v>
@@ -6727,7 +6727,7 @@
         <v>7</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K67">
         <v>0.8181818181818182</v>
@@ -6777,7 +6777,7 @@
         <v>5</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K68">
         <v>0.8141025641025641</v>
@@ -6877,7 +6877,7 @@
         <v>5</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K70">
         <v>0.8</v>
@@ -6927,7 +6927,7 @@
         <v>5</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K71">
         <v>0.8</v>
@@ -7027,7 +7027,7 @@
         <v>8</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K73">
         <v>0.8</v>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K79">
         <v>0.7777777777777778</v>
@@ -7377,7 +7377,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K80">
         <v>0.7727272727272727</v>
@@ -7427,7 +7427,7 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K81">
         <v>0.7692307692307693</v>
@@ -7477,7 +7477,7 @@
         <v>3</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K82">
         <v>0.75</v>
@@ -7577,7 +7577,7 @@
         <v>9</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K84">
         <v>0.75</v>
@@ -7627,7 +7627,7 @@
         <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K85">
         <v>0.75</v>
@@ -7827,7 +7827,7 @@
         <v>15</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K89">
         <v>0.75</v>
@@ -7877,7 +7877,7 @@
         <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K90">
         <v>0.75</v>
@@ -7927,7 +7927,7 @@
         <v>4</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K91">
         <v>0.7450980392156863</v>
@@ -7977,16 +7977,16 @@
         <v>12</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K92">
-        <v>0.7412280701754386</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L92">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M92">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N92">
         <v>0.9399999999999999</v>
@@ -7998,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -8027,28 +8027,28 @@
         <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="K93">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L93">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="M93">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O93">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -8077,7 +8077,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="K94">
         <v>0.7272727272727273</v>
@@ -8086,16 +8086,16 @@
         <v>8</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N94">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -8127,16 +8127,16 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K95">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L95">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -8177,16 +8177,16 @@
         <v>8</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K96">
         <v>0.7142857142857143</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M96">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -8227,7 +8227,7 @@
         <v>4</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K97">
         <v>0.7142857142857143</v>
@@ -8277,7 +8277,7 @@
         <v>17</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K98">
         <v>0.7142857142857143</v>
@@ -8327,16 +8327,16 @@
         <v>13</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K99">
         <v>0.7142857142857143</v>
       </c>
       <c r="L99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -8377,7 +8377,7 @@
         <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K100">
         <v>0.7142857142857143</v>
@@ -8427,28 +8427,28 @@
         <v>9</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>351</v>
+        <v>104</v>
       </c>
       <c r="K101">
-        <v>0.7142857142857143</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -8477,28 +8477,28 @@
         <v>14</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="K102">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L102">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M102">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N102">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -8577,7 +8577,7 @@
         <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K104">
         <v>0.7</v>
@@ -8627,7 +8627,7 @@
         <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K105">
         <v>0.6666666666666666</v>
@@ -8727,7 +8727,7 @@
         <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K107">
         <v>0.6666666666666666</v>
@@ -8777,7 +8777,7 @@
         <v>10</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
@@ -8827,7 +8827,7 @@
         <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K109">
         <v>0.6666666666666666</v>
@@ -8877,7 +8877,7 @@
         <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -8927,7 +8927,7 @@
         <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K111">
         <v>0.6666666666666666</v>
@@ -8977,7 +8977,7 @@
         <v>5</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -9027,7 +9027,7 @@
         <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9077,7 +9077,7 @@
         <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -9127,7 +9127,7 @@
         <v>5</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -9177,7 +9177,7 @@
         <v>5</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K116">
         <v>0.6666666666666666</v>
@@ -9227,7 +9227,7 @@
         <v>5</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K117">
         <v>0.6482939632545932</v>
@@ -9277,7 +9277,7 @@
         <v>5</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K118">
         <v>0.6417910447761194</v>
@@ -9356,28 +9356,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1571428571428571</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120">
         <v>11</v>
       </c>
-      <c r="D120">
-        <v>180</v>
-      </c>
-      <c r="E120">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F120">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>59</v>
-      </c>
       <c r="J120" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K120">
         <v>0.6363636363636364</v>
@@ -9406,13 +9406,13 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.1538461538461539</v>
+        <v>0.15</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9424,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K121">
         <v>0.6363636363636364</v>
@@ -9456,13 +9456,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.15</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K122">
         <v>0.6363636363636364</v>
@@ -9512,16 +9512,16 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>6</v>
@@ -9562,13 +9562,13 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F124">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
@@ -9577,28 +9577,28 @@
         <v>6</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="K124">
-        <v>0.636085626911315</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="L124">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="M124">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="N124">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O124">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -9627,28 +9627,28 @@
         <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="K125">
-        <v>0.632183908045977</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L125">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M125">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="N125">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="O125">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9677,28 +9677,28 @@
         <v>6</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K126">
-        <v>0.631578947368421</v>
+        <v>0.625</v>
       </c>
       <c r="L126">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M126">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N126">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="O126">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -9712,22 +9712,22 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="K127">
         <v>0.625</v>
@@ -9736,16 +9736,16 @@
         <v>5</v>
       </c>
       <c r="M127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N127">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -9759,22 +9759,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>363</v>
@@ -9809,22 +9809,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E129">
-        <v>0.57</v>
+        <v>0.9</v>
       </c>
       <c r="F129">
-        <v>0.43</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>364</v>
@@ -9859,25 +9859,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E130">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F130">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="K130">
         <v>0.625</v>
@@ -9886,16 +9886,16 @@
         <v>5</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -9909,25 +9909,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D131">
         <v>70</v>
       </c>
       <c r="E131">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="K131">
         <v>0.625</v>
@@ -9936,16 +9936,16 @@
         <v>5</v>
       </c>
       <c r="M131">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -9959,34 +9959,34 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F132">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>366</v>
       </c>
       <c r="K132">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="L132">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="M132">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -9998,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -10027,28 +10027,28 @@
         <v>6</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="K133">
-        <v>0.62</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L133">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="M133">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -10062,13 +10062,13 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F134">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -10077,28 +10077,28 @@
         <v>6</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="K134">
-        <v>0.6153846153846154</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L134">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="M134">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="N134">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O134">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>5</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -10112,13 +10112,13 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F135">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -10127,7 +10127,7 @@
         <v>6</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K135">
         <v>0.6097560975609756</v>
@@ -10156,28 +10156,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.1428571428571428</v>
+        <v>0.1375968992248062</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="E136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K136">
         <v>0.609375</v>
@@ -10206,13 +10206,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.1375968992248062</v>
+        <v>0.125</v>
       </c>
       <c r="C137">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>445</v>
+        <v>7</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>368</v>
@@ -10262,16 +10262,16 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>7</v>
@@ -10312,13 +10312,13 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F139">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -10356,25 +10356,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="E140">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F140">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>370</v>
@@ -10406,25 +10406,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.1212121212121212</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>69</v>
@@ -10456,25 +10456,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C142">
         <v>3</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>371</v>
@@ -10509,22 +10509,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F143">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>59</v>
@@ -10559,22 +10559,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E144">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="F144">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>372</v>
@@ -10612,13 +10612,13 @@
         <v>2</v>
       </c>
       <c r="D145">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E145">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F145">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -10659,25 +10659,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E146">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F146">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K146">
         <v>0.6</v>
@@ -10712,13 +10712,13 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E147">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F147">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -10762,13 +10762,13 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F148">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -10806,25 +10806,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>66</v>
@@ -10856,7 +10856,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10874,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>375</v>
@@ -10906,25 +10906,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.09848484848484848</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C151">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>376</v>
@@ -10962,16 +10962,16 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>10</v>
@@ -11012,16 +11012,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>10</v>
@@ -11062,13 +11062,13 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -11112,16 +11112,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>10</v>
@@ -11227,7 +11227,7 @@
         <v>10</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K157">
         <v>0.5555555555555556</v>
@@ -11262,16 +11262,16 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>10</v>
@@ -11306,7 +11306,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>381</v>
@@ -11356,25 +11356,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>382</v>
@@ -11412,16 +11412,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
         <v>11</v>
@@ -11462,16 +11462,16 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>11</v>
@@ -11506,25 +11506,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.08333333333333333</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>384</v>
@@ -11556,7 +11556,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11574,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>385</v>
@@ -11606,25 +11606,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.07964601769911504</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C165">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>118</v>
@@ -11662,16 +11662,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>12</v>
@@ -11706,25 +11706,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="E167">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F167">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>387</v>
@@ -11756,25 +11756,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>388</v>
@@ -11806,25 +11806,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>99</v>
@@ -11862,13 +11862,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -11912,13 +11912,13 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
@@ -11962,13 +11962,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F172">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -12012,16 +12012,16 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>13</v>
@@ -12062,13 +12062,13 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E174">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F174">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
@@ -12156,28 +12156,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K176">
         <v>0.5</v>
@@ -12206,25 +12206,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>395</v>
@@ -12312,16 +12312,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>14</v>
@@ -12359,10 +12359,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>397</v>
@@ -12412,16 +12412,16 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>14</v>
@@ -12459,22 +12459,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>399</v>
@@ -12506,25 +12506,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>400</v>
@@ -12556,25 +12556,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>401</v>
@@ -12606,13 +12606,13 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -12624,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>402</v>
@@ -12659,22 +12659,22 @@
         <v>0.0625</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>403</v>
@@ -12712,16 +12712,16 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>15</v>
@@ -12756,25 +12756,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D188">
         <v>3</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>405</v>
@@ -12806,25 +12806,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E189">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F189">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>87</v>
@@ -12859,22 +12859,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>406</v>
@@ -12909,25 +12909,25 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E191">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F191">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K191">
         <v>0.4666666666666667</v>
@@ -12956,25 +12956,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E192">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F192">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>407</v>
@@ -13006,25 +13006,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F193">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>408</v>
@@ -13062,13 +13062,13 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
@@ -13112,16 +13112,16 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>17</v>
@@ -13162,16 +13162,16 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>17</v>
@@ -13212,16 +13212,16 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>17</v>
@@ -13256,25 +13256,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>110</v>
@@ -13306,25 +13306,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>412</v>
@@ -13356,25 +13356,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E200">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F200">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>413</v>
@@ -13406,28 +13406,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.05263157894736842</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K201">
         <v>0.4285714285714285</v>
@@ -13456,25 +13456,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>414</v>
@@ -13512,16 +13512,16 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>21</v>
@@ -13562,16 +13562,16 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>21</v>
@@ -13606,7 +13606,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13624,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>100</v>
@@ -13656,25 +13656,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F206">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>417</v>
@@ -13706,7 +13706,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>418</v>
@@ -13756,25 +13756,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E208">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F208">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>419</v>
@@ -13806,7 +13806,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>111</v>
@@ -13856,28 +13856,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E210">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F210">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K210">
         <v>0.4074074074074074</v>
@@ -13906,7 +13906,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13924,10 +13924,10 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K211">
         <v>0.4</v>
@@ -13956,25 +13956,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.03846153846153846</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>420</v>
@@ -14006,25 +14006,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>421</v>
@@ -14056,25 +14056,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>82</v>
@@ -14109,22 +14109,22 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E215">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F215">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>422</v>
@@ -14156,25 +14156,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>85</v>
@@ -14206,28 +14206,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C217">
         <v>2</v>
       </c>
       <c r="D217">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E217">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F217">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K217">
         <v>0.4</v>
@@ -14262,22 +14262,22 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
         <v>29</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K218">
         <v>0.396551724137931</v>
@@ -14306,25 +14306,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E219">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F219">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>423</v>
@@ -14356,25 +14356,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>424</v>
@@ -14406,28 +14406,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.03225806451612903</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F221">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K221">
         <v>0.3928571428571428</v>
@@ -14456,7 +14456,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.03125</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14474,10 +14474,10 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K222">
         <v>0.3894736842105263</v>
@@ -14512,16 +14512,16 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>34</v>
@@ -14556,25 +14556,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>426</v>
@@ -14606,25 +14606,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>427</v>
@@ -14662,16 +14662,16 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
         <v>35</v>
@@ -14706,28 +14706,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E227">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F227">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K227">
         <v>0.3846153846153846</v>
@@ -14756,25 +14756,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>429</v>
@@ -14806,28 +14806,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K229">
         <v>0.3809523809523809</v>
@@ -14856,25 +14856,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>430</v>
@@ -14912,16 +14912,16 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
         <v>37</v>
@@ -14956,25 +14956,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>432</v>
@@ -15006,25 +15006,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E233">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F233">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>433</v>
@@ -15056,25 +15056,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>434</v>
@@ -15106,25 +15106,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F235">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>435</v>
@@ -15156,7 +15156,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15174,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>436</v>
@@ -15212,13 +15212,13 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E237">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F237">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
@@ -15256,25 +15256,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.02380952380952381</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>120</v>
@@ -15306,25 +15306,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.02380952380952381</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E239">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F239">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>438</v>
@@ -15356,25 +15356,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E240">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F240">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>439</v>
@@ -15406,25 +15406,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.02173913043478261</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D241">
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>440</v>
@@ -15456,25 +15456,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D242">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E242">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F242">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>441</v>
@@ -15506,25 +15506,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.02013422818791946</v>
+        <v>0.02</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>442</v>
@@ -15556,25 +15556,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
         <v>6</v>
       </c>
-      <c r="D244">
-        <v>124</v>
-      </c>
       <c r="E244">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F244">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>443</v>
@@ -15606,25 +15606,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.02</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>444</v>
@@ -15656,25 +15656,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01886792452830189</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E246">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F246">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>445</v>
@@ -15706,7 +15706,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>446</v>
@@ -15756,28 +15756,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01769911504424779</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
         <v>8</v>
       </c>
       <c r="E248">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F248">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K248">
         <v>0.3529411764705883</v>
@@ -15806,25 +15806,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01694915254237288</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>447</v>
@@ -15856,28 +15856,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E250">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F250">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K250">
         <v>0.35</v>
@@ -15906,28 +15906,28 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01652892561983471</v>
+        <v>0.015625</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K251">
         <v>0.3478260869565217</v>
@@ -15956,7 +15956,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15974,7 +15974,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>448</v>
@@ -16006,28 +16006,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.015625</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="E253">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F253">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K253">
         <v>0.3414634146341464</v>
@@ -16056,25 +16056,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01538461538461539</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>449</v>
@@ -16106,25 +16106,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01470588235294118</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>249</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F255">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>450</v>
@@ -16156,7 +16156,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01298701298701299</v>
+        <v>0.0125</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16174,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>451</v>
@@ -16206,25 +16206,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E257">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F257">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>98</v>
@@ -16256,25 +16256,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0125</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>452</v>
@@ -16306,25 +16306,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01234567901234568</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E259">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F259">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>78</v>
@@ -16356,25 +16356,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01041666666666667</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F260">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>453</v>
@@ -16406,25 +16406,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.009803921568627451</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E261">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F261">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>454</v>
@@ -16456,25 +16456,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.009708737864077669</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E262">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F262">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>455</v>
@@ -16506,25 +16506,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.009523809523809525</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E263">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F263">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>456</v>
@@ -16556,25 +16556,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.00909090909090909</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E264">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F264">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>457</v>
@@ -16606,25 +16606,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.00819672131147541</v>
+        <v>0.008</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E265">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F265">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>458</v>
@@ -16656,25 +16656,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E266">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F266">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>459</v>
@@ -16706,25 +16706,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.008</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E267">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F267">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>96</v>
@@ -16756,25 +16756,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.007751937984496124</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E268">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F268">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>460</v>
@@ -16806,25 +16806,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.006993006993006993</v>
+        <v>0.006153846153846154</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E269">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F269">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>142</v>
+        <v>323</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>461</v>
@@ -16856,25 +16856,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.006329113924050633</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="E270">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="F270">
-        <v>0.02000000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>462</v>
@@ -16906,25 +16906,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.006153846153846154</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>463</v>
@@ -16956,25 +16956,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.005555555555555556</v>
+        <v>0.003536693191865605</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D272">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E272">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F272">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>179</v>
+        <v>1127</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>464</v>
@@ -17006,25 +17006,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.003968253968253968</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>465</v>
@@ -17056,28 +17056,28 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.003536693191865605</v>
+        <v>0.002785515320334262</v>
       </c>
       <c r="C274">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E274">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F274">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>1127</v>
+        <v>358</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K274">
         <v>0.3194444444444444</v>
@@ -17106,25 +17106,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.003378378378378379</v>
+        <v>0.002481389578163772</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E275">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F275">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>295</v>
+        <v>804</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>466</v>
@@ -17156,25 +17156,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.002785515320334262</v>
+        <v>0.002424830261881668</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D276">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E276">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F276">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>358</v>
+        <v>2057</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>467</v>
@@ -17206,25 +17206,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.002481389578163772</v>
+        <v>0.002085505735140772</v>
       </c>
       <c r="C277">
         <v>2</v>
       </c>
       <c r="D277">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E277">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="F277">
-        <v>0.02000000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>804</v>
+        <v>957</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>468</v>
@@ -17256,25 +17256,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.002424830261881668</v>
+        <v>0.002009377093101138</v>
       </c>
       <c r="C278">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D278">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E278">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F278">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>2057</v>
+        <v>2980</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>469</v>
@@ -17306,25 +17306,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.002085505735140772</v>
+        <v>0.001579778830963665</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E279">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F279">
-        <v>0.18</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>957</v>
+        <v>632</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>470</v>
@@ -17356,25 +17356,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.002009377093101138</v>
+        <v>0.001190476190476191</v>
       </c>
       <c r="C280">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E280">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F280">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>2980</v>
+        <v>839</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>471</v>
@@ -17406,28 +17406,28 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.001579778830963665</v>
+        <v>0.001183431952662722</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E281">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F281">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>632</v>
+        <v>844</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K281">
         <v>0.3</v>
@@ -17456,25 +17456,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.001190476190476191</v>
+        <v>0.0009551098376313276</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E282">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F282">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>839</v>
+        <v>3138</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>472</v>
@@ -17502,32 +17502,8 @@
       </c>
     </row>
     <row r="283" spans="1:17">
-      <c r="A283" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B283">
-        <v>0.001183431952662722</v>
-      </c>
-      <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>50</v>
-      </c>
-      <c r="E283">
-        <v>0.98</v>
-      </c>
-      <c r="F283">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283">
-        <v>844</v>
-      </c>
       <c r="J283" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K283">
         <v>0.2987012987012987</v>
@@ -17552,32 +17528,8 @@
       </c>
     </row>
     <row r="284" spans="1:17">
-      <c r="A284" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B284">
-        <v>0.0009551098376313276</v>
-      </c>
-      <c r="C284">
-        <v>3</v>
-      </c>
-      <c r="D284">
-        <v>63</v>
-      </c>
-      <c r="E284">
-        <v>0.95</v>
-      </c>
-      <c r="F284">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284">
-        <v>3138</v>
-      </c>
       <c r="J284" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K284">
         <v>0.2884615384615384</v>
@@ -17603,7 +17555,7 @@
     </row>
     <row r="285" spans="1:17">
       <c r="J285" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K285">
         <v>0.2864077669902912</v>
@@ -17993,7 +17945,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K300">
         <v>0.28125</v>
@@ -18305,7 +18257,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K312">
         <v>0.2663551401869159</v>
@@ -18357,7 +18309,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K314">
         <v>0.2631578947368421</v>
@@ -18383,7 +18335,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K315">
         <v>0.2608695652173913</v>
@@ -18903,7 +18855,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K335">
         <v>0.24</v>
@@ -19059,7 +19011,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K341">
         <v>0.2307692307692308</v>
@@ -19111,7 +19063,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K343">
         <v>0.2272727272727273</v>
@@ -19397,7 +19349,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K354">
         <v>0.2222222222222222</v>
@@ -19423,7 +19375,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K355">
         <v>0.2222222222222222</v>
@@ -19683,7 +19635,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K365">
         <v>0.2045454545454546</v>
@@ -19735,7 +19687,7 @@
     </row>
     <row r="367" spans="10:17">
       <c r="J367" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K367">
         <v>0.2</v>
@@ -20021,7 +19973,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K378">
         <v>0.2</v>
@@ -20229,7 +20181,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K386">
         <v>0.189873417721519</v>
@@ -20255,7 +20207,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K387">
         <v>0.1896551724137931</v>
@@ -20307,7 +20259,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K389">
         <v>0.1875</v>
@@ -20515,7 +20467,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K397">
         <v>0.1818181818181818</v>
@@ -20593,7 +20545,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K400">
         <v>0.18</v>
@@ -21477,7 +21429,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K434">
         <v>0.16</v>
@@ -21503,7 +21455,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K435">
         <v>0.1538461538461539</v>
@@ -21737,7 +21689,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K444">
         <v>0.15</v>
@@ -21815,7 +21767,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K447">
         <v>0.1441441441441441</v>
@@ -21945,7 +21897,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K452">
         <v>0.1428571428571428</v>
@@ -21971,7 +21923,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K453">
         <v>0.1428571428571428</v>
@@ -22101,7 +22053,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K458">
         <v>0.1428571428571428</v>
@@ -22205,7 +22157,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K462">
         <v>0.1428571428571428</v>
@@ -22465,7 +22417,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K472">
         <v>0.1428571428571428</v>
@@ -22491,7 +22443,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K473">
         <v>0.1428571428571428</v>
@@ -22569,7 +22521,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K476">
         <v>0.1428571428571428</v>
@@ -22673,7 +22625,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K480">
         <v>0.1373493975903614</v>
@@ -22751,7 +22703,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K483">
         <v>0.1333333333333333</v>
@@ -23011,7 +22963,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K493">
         <v>0.1276595744680851</v>
@@ -23713,7 +23665,7 @@
     </row>
     <row r="520" spans="10:17">
       <c r="J520" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K520">
         <v>0.1176470588235294</v>
@@ -23765,7 +23717,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K522">
         <v>0.1176470588235294</v>
@@ -23791,7 +23743,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K523">
         <v>0.1142857142857143</v>
@@ -23973,7 +23925,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K530">
         <v>0.1111111111111111</v>
@@ -24025,7 +23977,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K532">
         <v>0.1111111111111111</v>
@@ -24363,7 +24315,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K545">
         <v>0.1060606060606061</v>
@@ -24389,7 +24341,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K546">
         <v>0.1056729699666296</v>
@@ -24441,7 +24393,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K548">
         <v>0.1052631578947368</v>
@@ -24571,7 +24523,7 @@
     </row>
     <row r="553" spans="10:17">
       <c r="J553" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K553">
         <v>0.1012658227848101</v>
@@ -25169,7 +25121,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K576">
         <v>0.09090909090909091</v>
@@ -25247,7 +25199,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K579">
         <v>0.09090909090909091</v>
@@ -25637,7 +25589,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K594">
         <v>0.08771929824561403</v>
@@ -26599,7 +26551,7 @@
     </row>
     <row r="631" spans="10:17">
       <c r="J631" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K631">
         <v>0.075</v>
@@ -26937,7 +26889,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K644">
         <v>0.06923076923076923</v>
@@ -26963,7 +26915,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K645">
         <v>0.069164265129683</v>
@@ -26989,7 +26941,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K646">
         <v>0.06818181818181818</v>
@@ -27171,7 +27123,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K653">
         <v>0.06666666666666667</v>
@@ -27431,7 +27383,7 @@
     </row>
     <row r="663" spans="10:17">
       <c r="J663" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K663">
         <v>0.06481481481481481</v>
@@ -27483,7 +27435,7 @@
     </row>
     <row r="665" spans="10:17">
       <c r="J665" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K665">
         <v>0.06451612903225806</v>
@@ -28367,7 +28319,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K699">
         <v>0.05487122060470324</v>
@@ -28783,7 +28735,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K715">
         <v>0.05128205128205128</v>
@@ -29095,7 +29047,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K727">
         <v>0.048</v>
@@ -29277,7 +29229,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K734">
         <v>0.04672897196261682</v>
@@ -29511,7 +29463,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K743">
         <v>0.04347826086956522</v>
@@ -29641,7 +29593,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K748">
         <v>0.0425531914893617</v>
@@ -29693,7 +29645,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K750">
         <v>0.0425531914893617</v>
@@ -30109,7 +30061,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K766">
         <v>0.03908794788273615</v>
@@ -30135,7 +30087,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K767">
         <v>0.03901967107384715</v>
@@ -30239,7 +30191,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K771">
         <v>0.03788587464920486</v>
@@ -30265,7 +30217,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K772">
         <v>0.0375</v>
@@ -30551,7 +30503,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K783">
         <v>0.03571428571428571</v>
@@ -31175,7 +31127,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K807">
         <v>0.03117782909930716</v>
@@ -31201,7 +31153,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K808">
         <v>0.03076923076923077</v>
@@ -31487,7 +31439,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K819">
         <v>0.02857142857142857</v>
@@ -31591,7 +31543,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K823">
         <v>0.02717391304347826</v>
@@ -31825,7 +31777,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K832">
         <v>0.02619414483821263</v>
@@ -31851,7 +31803,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K833">
         <v>0.02592912705272256</v>
@@ -31903,7 +31855,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K835">
         <v>0.02564102564102564</v>
@@ -32241,7 +32193,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K848">
         <v>0.02362204724409449</v>
@@ -32761,7 +32713,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K868">
         <v>0.01876172607879925</v>
@@ -32865,7 +32817,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K872">
         <v>0.01801801801801802</v>
@@ -33047,7 +32999,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K879">
         <v>0.01612903225806452</v>
@@ -33203,7 +33155,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K885">
         <v>0.01538461538461539</v>
@@ -33437,7 +33389,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K894">
         <v>0.01234567901234568</v>
@@ -33697,7 +33649,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K904">
         <v>0.009523809523809525</v>
@@ -33723,7 +33675,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K905">
         <v>0.009316770186335404</v>
